--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="280" windowWidth="25360" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="280" windowWidth="31420" windowHeight="18660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>LIVRABLES</t>
   </si>
@@ -135,12 +135,6 @@
     <t>Le code asynchrone respecte les conventions Node.js (ou utilise des promesses).</t>
   </si>
   <si>
-    <t>Les statistiques sont chargées de manière asynchrone avec des requêtes AJAX.</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>L'API REST permet de gérer des questionnaires avec leurs questions et choix.</t>
   </si>
   <si>
@@ -160,6 +154,9 @@
   </si>
   <si>
     <t>La page de produit utilise un thème Bootstrap spécifique (pas le thème par défaut).</t>
+  </si>
+  <si>
+    <t>Une stratégie a été mise en œuvre pour valider que les données statistiques affichées sur la première page correspond bien à ce qui a été créé via l'API REST. Elle est clairement documentée.</t>
   </si>
 </sst>
 </file>
@@ -260,22 +257,22 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -604,15 +601,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="97.83203125" customWidth="1"/>
+    <col min="1" max="1" width="111.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
@@ -630,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -654,9 +651,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -671,8 +668,8 @@
         <v>4</v>
       </c>
       <c r="C7" s="4">
-        <f>B7/B$58</f>
-        <v>0.11428571428571428</v>
+        <f>B7/B$57</f>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -695,7 +692,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -703,7 +700,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -711,7 +708,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -719,7 +716,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -727,7 +724,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -735,7 +732,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -743,7 +740,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -751,15 +748,15 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -767,44 +764,44 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
+        <f>SUM(B10:B20)</f>
+        <v>11</v>
+      </c>
+      <c r="C21" s="4">
+        <f>B21/B$57</f>
+        <v>0.3235294117647059</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <f>SUM(B10:B21)</f>
-        <v>12</v>
-      </c>
-      <c r="C22" s="4">
-        <f>B22/B$58</f>
-        <v>0.34285714285714286</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>2</v>
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -812,7 +809,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -820,7 +817,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -836,7 +833,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -844,44 +841,44 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <f>SUM(B24:B30)</f>
+        <v>7</v>
+      </c>
+      <c r="C31" s="4">
+        <f>B31/B$57</f>
+        <v>0.20588235294117646</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3">
-        <f>SUM(B25:B31)</f>
-        <v>7</v>
-      </c>
-      <c r="C32" s="4">
-        <f>B32/B$58</f>
-        <v>0.2</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>14</v>
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -889,7 +886,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -897,7 +894,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -905,7 +902,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -913,7 +910,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -921,7 +918,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -929,7 +926,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -937,86 +934,86 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30">
-      <c r="A44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3">
+        <f>SUM(B34:B43)</f>
+        <v>10</v>
+      </c>
+      <c r="C44" s="4">
+        <f>B44/B$57</f>
+        <v>0.29411764705882354</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3">
-        <f>SUM(B35:B44)</f>
-        <v>10</v>
-      </c>
-      <c r="C45" s="4">
-        <f>B45/B$58</f>
-        <v>0.2857142857142857</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
+      <c r="A48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="30">
       <c r="A50" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5" t="s">
-        <v>39</v>
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3">
+        <f>SUM(B48:B49)</f>
+        <v>2</v>
+      </c>
+      <c r="C51" s="4">
+        <f>B51/B$57</f>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="3">
-        <f>SUM(B49:B50)</f>
-        <v>2</v>
-      </c>
-      <c r="C52" s="4">
-        <f>B52/B$58</f>
-        <v>5.7142857142857141E-2</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
@@ -1033,19 +1030,17 @@
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="3">
+        <f>SUM(B7,B21,B31,B44,B51)</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="3">
-        <f>SUM(B7,B22,B32,B45,B52)</f>
-        <v>35</v>
-      </c>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2"/>
@@ -1054,24 +1049,21 @@
       <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B57-B51-B21</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="3">
-        <f>B58-B52-B22</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="6">
-        <f>B62/B58*5+1</f>
-        <v>4</v>
+      <c r="B62" s="6">
+        <f>B61/B57*5+1</f>
+        <v>4.0882352941176467</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>LIVRABLES</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Une stratégie a été mise en œuvre pour valider que les données statistiques affichées sur la première page correspond bien à ce qui a été créé via l'API REST. Elle est clairement documentée.</t>
+  </si>
+  <si>
+    <t>La grille d'auto-évaluation a été remplie et est disponible dans le repo.</t>
   </si>
 </sst>
 </file>
@@ -223,9 +226,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -256,7 +261,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="18">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -264,6 +269,7 @@
     <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -271,6 +277,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -601,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -668,8 +675,8 @@
         <v>4</v>
       </c>
       <c r="C7" s="4">
-        <f>B7/B$57</f>
-        <v>0.11764705882352941</v>
+        <f>B7/B$58</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -779,8 +786,8 @@
         <v>11</v>
       </c>
       <c r="C21" s="4">
-        <f>B21/B$57</f>
-        <v>0.3235294117647059</v>
+        <f>B21/B$58</f>
+        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -856,8 +863,8 @@
         <v>7</v>
       </c>
       <c r="C31" s="4">
-        <f>B31/B$57</f>
-        <v>0.20588235294117646</v>
+        <f>B31/B$58</f>
+        <v>0.19444444444444445</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -957,8 +964,8 @@
         <v>10</v>
       </c>
       <c r="C44" s="4">
-        <f>B44/B$57</f>
-        <v>0.29411764705882354</v>
+        <f>B44/B$58</f>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -998,22 +1005,25 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3">
-        <f>SUM(B48:B49)</f>
-        <v>2</v>
-      </c>
-      <c r="C51" s="4">
-        <f>B51/B$57</f>
-        <v>5.8823529411764705E-2</v>
+      <c r="A51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3">
+        <f>SUM(B48:B51)</f>
+        <v>4</v>
+      </c>
+      <c r="C52" s="4">
+        <f>B52/B$58</f>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
@@ -1030,17 +1040,19 @@
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="3">
-        <f>SUM(B7,B21,B31,B44,B51)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
+      <c r="B58" s="3">
+        <f>SUM(B7,B21,B31,B44,B52)</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2"/>
@@ -1049,21 +1061,24 @@
       <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="3">
-        <f>B57-B51-B21</f>
-        <v>21</v>
-      </c>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B58-B52-B21</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="6">
-        <f>B61/B57*5+1</f>
-        <v>4.0882352941176467</v>
+      <c r="B63" s="6">
+        <f>B62/B58*5+1</f>
+        <v>3.916666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -979,12 +979,18 @@
       <c r="B41">
         <v>1</v>
       </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
     </row>

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -834,12 +834,18 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
     </row>

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1040,6 +1040,9 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
@@ -1065,6 +1068,9 @@
         <v>46</v>
       </c>
       <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>1</v>
       </c>
     </row>
